--- a/src/main/resources/student.xlsx
+++ b/src/main/resources/student.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B20FD6-9EC0-477E-A5FF-294659724C7F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC88C64-9A02-47EA-A124-CB5DE6495D40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="22785" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5130" yWindow="1635" windowWidth="22785" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="85">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,10 +168,6 @@
     <t>陈恩如9</t>
   </si>
   <si>
-    <t>440882199703204714</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>男</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,9 +176,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>201624133134</t>
-  </si>
-  <si>
     <t>123456</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,14 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>201624133134</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>440882199703204715</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>共青团员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,6 +251,69 @@
   </si>
   <si>
     <t>中国/广东省/湛江市/雷州市/雷高镇/东坑村234号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201924133134</t>
+  </si>
+  <si>
+    <t>201924133135</t>
+  </si>
+  <si>
+    <t>201924133136</t>
+  </si>
+  <si>
+    <t>201924133137</t>
+  </si>
+  <si>
+    <t>201924133138</t>
+  </si>
+  <si>
+    <t>201924133139</t>
+  </si>
+  <si>
+    <t>201924133140</t>
+  </si>
+  <si>
+    <t>201924133141</t>
+  </si>
+  <si>
+    <t>201924133142</t>
+  </si>
+  <si>
+    <t>446885977320165421</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>446885977320165422</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>446885977320165423</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>446885977320165424</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>446885977320165425</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>446885977320165426</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>446885977320165427</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>446885977320165428</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>446885977320165429</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,7 +648,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -641,7 +689,7 @@
         <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s">
         <v>1</v>
@@ -650,7 +698,7 @@
         <v>31</v>
       </c>
       <c r="L1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s">
         <v>5</v>
@@ -662,7 +710,7 @@
         <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q1" t="s">
         <v>33</v>
@@ -673,52 +721,52 @@
         <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" t="s">
         <v>52</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
       </c>
       <c r="N2" t="s">
         <v>9</v>
       </c>
       <c r="O2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="P2" s="1">
         <v>524241</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -726,34 +774,34 @@
         <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>7</v>
@@ -765,13 +813,13 @@
         <v>10</v>
       </c>
       <c r="O3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P3" s="1">
         <v>524241</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -779,34 +827,34 @@
         <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
         <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>7</v>
@@ -818,13 +866,13 @@
         <v>11</v>
       </c>
       <c r="O4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P4" s="1">
         <v>524241</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -832,34 +880,34 @@
         <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
         <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>7</v>
@@ -871,13 +919,13 @@
         <v>12</v>
       </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P5" s="1">
         <v>524241</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -885,34 +933,34 @@
         <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
         <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="K6" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>7</v>
@@ -924,13 +972,13 @@
         <v>13</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P6" s="1">
         <v>524241</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -938,34 +986,34 @@
         <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>7</v>
@@ -977,13 +1025,13 @@
         <v>14</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P7" s="1">
         <v>524241</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -991,34 +1039,34 @@
         <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="K8" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>7</v>
@@ -1030,13 +1078,13 @@
         <v>15</v>
       </c>
       <c r="O8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P8" s="1">
         <v>524241</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -1044,34 +1092,34 @@
         <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="K9" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>7</v>
@@ -1083,13 +1131,13 @@
         <v>16</v>
       </c>
       <c r="O9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P9" s="1">
         <v>524241</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -1097,52 +1145,52 @@
         <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
         <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="K10" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N10" t="s">
         <v>17</v>
       </c>
       <c r="O10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P10" s="1">
         <v>524241</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
